--- a/biology/Zoologie/Betschurinus_farmae/Betschurinus_farmae.xlsx
+++ b/biology/Zoologie/Betschurinus_farmae/Betschurinus_farmae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Betschurinus farmae, unique représentant du genre Betschurinus, est une espèce de collemboles de la famille des Katiannidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Toscane en Italie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Toscane en Italie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Betschurinus est nommé en l'honneur de Jean-Marie Betsch[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Betschurinus est nommé en l'honneur de Jean-Marie Betsch.
 Son nom d'espèce, farmae, lui a été donné en référence au lieu de sa découverte, la vallée du Farma (d), une petite rivière à environ 20-25 km au sud de Sienne.
 </t>
         </is>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dallai &amp; Martinozzi, 1980 : « Richerche sui Collemboli XXV. La Val di Farma ». Atti della Accademia dei Fisiocritici in Siena, vol. 12, p. 103-153.</t>
         </is>
